--- a/October'21/18.10.2021/Bank Statement October-2021.xlsx
+++ b/October'21/18.10.2021/Bank Statement October-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -3542,6 +3542,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3566,12 +3590,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3591,24 +3609,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4341,70 +4341,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
+      <c r="O1" s="344"/>
+      <c r="P1" s="344"/>
+      <c r="Q1" s="344"/>
+      <c r="R1" s="344"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="345" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
-      <c r="Q2" s="337"/>
-      <c r="R2" s="337"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="345"/>
+      <c r="R2" s="345"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="346" t="s">
+      <c r="A3" s="352" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="347"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
-      <c r="F3" s="347"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="347"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="347"/>
-      <c r="O3" s="347"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="347"/>
-      <c r="R3" s="348"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="354"/>
       <c r="T3" s="69"/>
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
@@ -4413,55 +4413,55 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="348" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="334" t="s">
+      <c r="D4" s="342" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="342" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="334" t="s">
+      <c r="F4" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="334" t="s">
+      <c r="G4" s="342" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="334" t="s">
+      <c r="H4" s="342" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="334" t="s">
+      <c r="I4" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="334" t="s">
+      <c r="J4" s="342" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="349" t="s">
+      <c r="K4" s="355" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="342" t="s">
+      <c r="L4" s="334" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="351" t="s">
+      <c r="M4" s="336" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="353" t="s">
+      <c r="N4" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="355" t="s">
+      <c r="O4" s="340" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="342" t="s">
+      <c r="P4" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="344" t="s">
+      <c r="Q4" s="350" t="s">
         <v>201</v>
       </c>
       <c r="R4" s="194" t="s">
@@ -4474,23 +4474,23 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="339"/>
-      <c r="B5" s="341"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
-      <c r="I5" s="335"/>
-      <c r="J5" s="335"/>
-      <c r="K5" s="350"/>
-      <c r="L5" s="343"/>
-      <c r="M5" s="352"/>
-      <c r="N5" s="354"/>
-      <c r="O5" s="356"/>
-      <c r="P5" s="343"/>
-      <c r="Q5" s="345"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="343"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="343"/>
+      <c r="G5" s="343"/>
+      <c r="H5" s="343"/>
+      <c r="I5" s="343"/>
+      <c r="J5" s="343"/>
+      <c r="K5" s="356"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="335"/>
+      <c r="Q5" s="351"/>
       <c r="R5" s="195" t="s">
         <v>29</v>
       </c>
@@ -7492,14 +7492,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7512,6 +7504,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9540,7 +9540,7 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F19"/>
     </sheetView>
   </sheetViews>
@@ -10944,9 +10944,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11828,10 +11828,12 @@
       <c r="K25" s="117"/>
       <c r="L25" s="113"/>
       <c r="M25" s="114"/>
-      <c r="N25" s="115"/>
+      <c r="N25" s="115">
+        <v>4</v>
+      </c>
       <c r="O25" s="115"/>
       <c r="P25" s="115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="120"/>
     </row>
@@ -11958,7 +11960,7 @@
       </c>
       <c r="N29" s="129">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O29" s="129">
         <f t="shared" si="1"/>
@@ -11966,7 +11968,7 @@
       </c>
       <c r="P29" s="129">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="130"/>
     </row>
